--- a/server/legacy_data/Material Master Data Dura BU001.xlsx
+++ b/server/legacy_data/Material Master Data Dura BU001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SS Agency\Development\my-erp\server\legacy_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6969746-FBF6-4D38-9A22-86BF58A09BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0888023A-BFB7-46BD-9E9E-E48CCE2A2306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E29E1CD1-8D0E-4D41-A9C5-24A5118B7B92}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
   <si>
     <t>HSN Code</t>
   </si>
@@ -686,10 +686,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,10 +748,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="6">
-        <v>30000005</v>
+        <v>30000002</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="10">
         <v>90219090</v>
@@ -760,13 +760,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="11">
-        <v>59210.526315789473</v>
+        <v>25000</v>
       </c>
       <c r="G2" s="7">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="H2" s="7">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>26</v>
@@ -775,7 +775,7 @@
         <v>27</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
@@ -787,10 +787,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="6">
-        <v>30000006</v>
+        <v>30000003</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="10">
         <v>90219090</v>
@@ -799,13 +799,13 @@
         <v>5</v>
       </c>
       <c r="F3" s="11">
-        <v>76315.789473684214</v>
+        <v>36842.105263157893</v>
       </c>
       <c r="G3" s="7">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="H3" s="7">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>26</v>
@@ -814,7 +814,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
@@ -826,10 +826,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="6">
-        <v>30000007</v>
+        <v>30000004</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10">
         <v>90219090</v>
@@ -838,13 +838,13 @@
         <v>5</v>
       </c>
       <c r="F4" s="11">
-        <v>94736.84210526316</v>
+        <v>47368.42105263158</v>
       </c>
       <c r="G4" s="7">
-        <v>72000</v>
+        <v>36000</v>
       </c>
       <c r="H4" s="7">
-        <v>72000</v>
+        <v>36000</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>26</v>
@@ -853,296 +853,23 @@
         <v>27</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6">
-        <v>30000008</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10">
-        <v>90219090</v>
-      </c>
-      <c r="E5" s="9">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>111842.10526315789</v>
-      </c>
-      <c r="G5" s="7">
-        <v>85000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>85000</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6">
-        <v>30000009</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10">
-        <v>90219090</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11">
-        <v>144736.84210526315</v>
-      </c>
-      <c r="G6" s="7">
-        <v>110000</v>
-      </c>
-      <c r="H6" s="7">
-        <v>110000</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6">
-        <v>30000010</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10">
-        <v>90219090</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11">
-        <v>164473.68421052632</v>
-      </c>
-      <c r="G7" s="7">
-        <v>125000</v>
-      </c>
-      <c r="H7" s="7">
-        <v>125000</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6">
-        <v>30000011</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10">
-        <v>90219090</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11">
-        <v>184210.5263157895</v>
-      </c>
-      <c r="G8" s="7">
-        <v>140000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>140000</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6">
-        <v>30000012</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10">
-        <v>90219090</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11">
-        <v>210526.31578947371</v>
-      </c>
-      <c r="G9" s="7">
-        <v>160000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>160000</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6">
-        <v>30000013</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="10">
-        <v>90219090</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11">
-        <v>236842.10526315792</v>
-      </c>
-      <c r="G10" s="7">
-        <v>180000</v>
-      </c>
-      <c r="H10" s="7">
-        <v>180000</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6">
-        <v>30000014</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="10">
-        <v>90219090</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11">
-        <v>263157.89473684214</v>
-      </c>
-      <c r="G11" s="7">
-        <v>200000</v>
-      </c>
-      <c r="H11" s="7">
-        <v>200000</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="K1" xr:uid="{2547860E-5F2E-46FC-9850-7E608E04774A}"/>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0.05" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1154,7 +881,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,12 +1483,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
